--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/56_Manisa_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/56_Manisa_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73463F0E-4E2E-4701-A27C-4852E260CA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED723E4-D0ED-441F-B01E-F5A79A5690EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49746329-81A0-4590-B2B3-01F878AB932D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{270F1C6A-6469-4568-85A6-2597263C8758}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{21EC451F-6C96-4490-BC40-23DE1D18BF34}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{BC67AD48-9750-4451-A294-0AF52C41AC2D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{CC1FA9D3-5574-4ED3-8FDD-247C9154015B}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{878D2B6D-FDBD-47EF-A65B-4AFA3DF3C71B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{E0C56B84-1667-4683-A36B-67090B66F91E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{17BA4B62-017A-4A68-BB30-09F42BB96566}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{D87AC663-B92F-4500-86D3-EFBAF60CB9D4}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{9829EBBC-9A75-4689-B17C-7AFBF876D591}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16F6E30-F206-4FB6-B5E1-6986E5590CE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7DF3EF-85A3-448B-AD1C-D1E6D151BFE8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2481,18 +2481,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B1887EF1-37B5-4320-9405-4BAC8B98D623}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7532F03D-87D0-4E0D-B45B-81B07F740D31}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{446DDEDF-095D-44B3-9A98-3569400D3A47}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5287BB2B-91C7-4680-A15D-BB082C8C5BCD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1115D27A-4A3C-488E-AFD3-E16E2A46A0C4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{008087B3-E677-4801-9235-48407EFDDDE0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D8BA3595-0424-4356-983D-90F00A11A69A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ACFCE242-BAD8-403D-9253-51CED4F71BE8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1E14E7A8-24E2-4327-B7FD-21E75E9E959A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{08BF97C0-A34A-4300-B337-CEB4CFD0B9C0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6504F134-2026-43B1-A8FB-366E92CC7D02}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6E81D0D5-3808-40B2-BD10-41570751CF54}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DAE0EE7A-A4FC-4231-84C1-E9087112D0D7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1E485B7E-8E2A-40D4-B510-3686FBF042D0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{08E0E9A5-7001-4779-B7BE-453B2EDCADCB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DCC491F0-7075-4CD5-ADAC-6D3EA40C85A1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0315E1A3-B609-43FD-A535-D2F9C8B4F820}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E2025929-DEBF-4418-A93D-185991C4E31D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6AC5B734-A59F-4CC1-89BE-85E210C34803}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D978C02D-E2BE-4099-93AA-81C0074C01CF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BD0ABEDF-4907-4A7E-BFAC-DDECD263311E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ED75917C-9D49-44A9-BDC6-19E9AC7A0769}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BC170212-0E53-46F4-B509-F9704F83ACDB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{65735EE0-BF1A-4A0A-A0AB-741FF5E98CB2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2505,7 +2505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57E7A0A-5EC5-4264-AE7E-80AE86569342}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76566CE-67F9-4610-91D4-36E78C39BA55}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3734,18 +3734,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5992FA4D-5C68-4CD9-9FB5-5A148FCDA9EF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B625AA76-A77B-4762-9003-6596B83B7121}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B02C9649-33EE-458F-B592-80602618F60F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{74E71513-EDBD-4C33-A68E-D948A918747E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F805D366-51E3-4E31-B4F7-B576BC6A462E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9B255CDD-DA11-4B90-B29C-8582D3D43A4D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{086B72CA-EFFE-41B3-9901-FAB7BD0CBDF5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9341834A-D9E8-4254-AEC3-9F051445BF53}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3F3DAE6E-D788-49D6-9AA4-783F4F4A7114}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{08422536-5D96-4A3F-93A9-A2483769CF3D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6B578CEE-09E6-49AD-A6A0-ADE55C810961}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7FE87A40-FB9B-4ED1-8371-1DF87F8D7CD5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DB73701F-7E72-4E42-BBD6-50C9D59CE732}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AECD1857-A6AF-47B3-A4C5-58D12CE91933}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9A73C8C8-A420-492A-950A-CA466F501162}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9B4E1EE8-26C0-4B38-8729-4BAB20B385AE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9FB682D7-0CAD-434A-B76B-34E5952D10ED}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1DCDB239-8E4F-41FE-A852-3CFBC7359920}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9DF5E958-B64A-413B-8D78-64D6BC0C1A2F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BD72D00B-5E56-4AE3-8430-DFF91780BFB3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{01B08571-2DF6-455C-8762-6768B8B73196}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C34990E2-D55E-4406-9030-36DFC2D25969}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FEF36F71-0225-4CE6-AC5A-19397A14E2B2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7F625C31-0361-44A1-AD51-410009E5F0E3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3758,7 +3758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CF557A-67F1-4F4A-9706-2E2C6CDA81BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D79CDE-76BA-4176-A78B-F407D3BD3F0B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4983,18 +4983,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{500DEE95-A312-4E64-B8AD-2AF5BA10A7CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E14D7F05-5168-4553-9874-37B1395E2A12}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E8C96712-8C54-4AFE-B11B-0BAD6C63F33B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B6AAC7A9-9EB6-4FAB-AF15-76B4DBAC2577}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A3AEDD14-803F-460E-B880-DA93338DD0E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{129A140D-80B2-49CC-8E28-DFEF43874020}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D27E9F40-2455-4049-9A82-EA9780A2F0B3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{73E58555-C146-47AA-98A6-14A1BA4E919D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4348BC0E-1F4E-4FEE-A473-80C501DF5126}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C32E294D-82E6-438D-9866-7FB4AFCFDD47}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FA3F9F25-EFAA-4CA7-B01F-D5289FFFCF5C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{444A066E-C86A-46E3-89E0-6C7A658104E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E21BAD89-6C5B-40E7-BC2A-C6F8EA71AEB5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DE82428C-FEBE-4D59-A001-649A8FDB1263}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{88917969-BC7E-43E5-9CE6-FD8BFF89D796}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{38F8D757-314D-4B1F-82AA-58E76C7230A2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6173D5DE-DF40-4B65-92A4-DB274623166A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EF5C550F-46B2-493D-9313-44B1BD7A4DF4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AD97DE99-4B0C-40CD-BD8C-7F4385C85B04}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2D5CBC03-5AB2-4B81-BECE-AC31ABED815A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5BBCD701-D2F4-4D20-AC34-4EB4D0155D44}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{26391D22-5618-42E3-8551-21E81DECF5CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F3DC449C-0E0A-4C18-8BB2-4C4E63B9EEAC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8ADB9555-3B7C-4A91-B1C9-C35320B3BC31}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5007,7 +5007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D050CC99-36B5-4FA6-B212-834373902058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55EF305-72DD-4784-90FE-AB9E30E5EC16}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6220,18 +6220,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DA9B6A14-E9D1-468F-82DE-AB110ED41DA7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B23F4FF3-F25B-49A7-B8E2-64598D3C1D12}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A3A26300-63C5-4245-A1C5-6CEA24C391C8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{25C5CC8C-CEE9-4DE2-8A26-C3B639701FB3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{747B5015-4856-4E2A-BADB-D266D6124B65}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DE1CA54B-B4F7-44FB-AF00-D2BE73D87466}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4EA84FF7-F927-4382-B49A-DA459F8005E5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{02CAAB46-03E2-4438-A1D3-19CECB66DDE4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{247EEBBC-F398-4844-916C-411A5C02A596}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FB5F93D3-91F1-4390-BEDB-A2CF36F5ACBA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6CD181A1-EF2E-4FC7-8511-36936C6FD030}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5611E5E4-8CF2-48EF-B1B6-F7E9631943AD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AF9A3083-8B9A-4E2F-8EA4-601CF94293C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C99B20CA-3D0D-4627-9E25-43B503B8BE63}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{29890AEB-8A10-4513-AB95-0911074D947C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{20525B7C-8B33-4DFF-8D93-7B0E526985C1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{38AE0723-D4D0-47D5-909C-7ABF44554496}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{AD2061A9-BCE8-4F75-BF80-D3EE7EA80778}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A27CF5EC-0B81-4D6B-AE65-C99A06E00BD5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ABE5E46C-C2F0-495A-84FB-82DFCFFD0003}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C7A88812-8C31-41BE-9747-9EBBDC037830}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A84F05CC-093A-4309-BF31-A8C184911C1F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{407EAAAA-D9E1-445D-A075-1467D8610B0A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AAA2BB9E-7D85-47A3-A4A5-814EB7210246}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6244,7 +6244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1C71D7-E5EE-4B5B-8291-754C423E19BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15051020-38C0-466A-9663-100C6C3CCF1F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7487,18 +7487,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{668ACD62-FDA9-4C94-81FE-0A148337D13C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{499C5DFF-618B-43C3-AF7D-9E6D0ECE71F0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4D011180-0248-4C3A-A359-E49B9DF18329}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A8DE607F-D662-4356-BF06-92165C409404}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{27A3C386-74A2-45D7-950F-5CC022FE88C4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{00935067-3321-4D5D-A197-36E7940ADAEC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{09C45C69-3681-4063-A1AD-7B24A4764028}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2EC8B1C5-3212-44A1-B455-76C40905DAF0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AFB6D48D-775C-42F1-8873-A00F67842A49}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{69DE7846-9E2F-4F2D-8184-9713CA511372}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D8058A3D-8E57-4648-BF1F-2F18F11A5B07}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{83CD7B4D-30AA-4702-82E7-DF298DCFE939}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AECCCAC6-A11A-4E38-9596-23FE34355B4D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9BFF37B1-07AE-44D1-A999-5B08CB4D6F30}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{00FF9CCE-BF0C-4640-BAD7-C35C9FDE5604}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5D9B9CB3-A243-4774-8A0B-38BFA591FF61}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{730B504B-F2B5-4023-A01B-3EE80D958C65}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DA2B8991-80F9-4C5A-8319-49F3CC09C982}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{824DD270-5992-4202-BA13-7333BBE1D6E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BEB61A87-FABB-460D-BD28-39051BCD61ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C248B415-01F4-4CD0-BD87-173849E2C663}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{160E1350-BA9C-4188-B609-5E57460E2F60}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D202A387-130E-4AE7-AF38-ACEA6C945DE3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FDD55D79-3082-4761-A658-D6C344774A6B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7511,7 +7511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF66C30-18B6-4FAD-A512-2C976239ADD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D85F47C-6AB6-4AC6-8797-3AEF64FC0923}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8754,18 +8754,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{72F646A7-22D1-45B8-AD44-3DD3EA5557B3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{77B34042-F54F-4A8E-8FFA-D734B76C94F0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{754E22E3-37AD-425D-86DF-F8E2D346D4E0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{335123C4-87D9-44F8-925C-20E91025DD3E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FA9A85A8-743D-4AB0-8A63-96321AEEA52C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F1B6D0D3-8F49-4C62-96ED-191D0F3388C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{47D46968-9E59-4BB6-B28F-94F6379A415F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CAE6EDD4-6DE8-4937-BB21-0578247109FC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FF7F9F02-D87D-4087-8E4F-E4942936FD0B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{67F5E1F7-11B7-424E-A62A-82E9F2707286}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{96970E6A-BA0F-423A-B3A1-A621D56493F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{31BC4572-A43D-42B0-8FDA-63F1555BB8F6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{83F731A5-BF0A-42AF-AF55-2A77F7EF78C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3519296B-9C27-4147-9FCA-D1EF524E7DEC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1E26C992-BF63-4A29-B6A9-D75FEA4F1DC8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CFAF10DE-7F52-4618-923E-56D878E984F1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A648DC44-E72E-4F24-9024-0568E29B0588}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6CF3CE51-74A3-47EF-9F7D-1ED05B209F7D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A4ED8AC9-15C2-4262-9CFF-CD82A77ECD37}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{74A440A8-08EA-4C47-8B8A-93E45DC00CF2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{67BFEE26-FF49-4EA9-B9AE-3BDA2775CDCE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{03914019-0C2A-429D-A1B4-77AB772D09A2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{732016A1-9D6E-49E3-8A54-612B8B72EEB7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{599208AE-07BA-4CB8-8FD1-B62CC9EB42B7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8778,7 +8778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACB88C6-3CEE-4983-B3ED-D017FBFC3D0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F84C160-1019-417F-A271-B17C3DBF758F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10021,18 +10021,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A3F6047A-B52E-4BA4-A97F-8F7A36BCF222}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A9EA5A9C-F20C-47FD-956E-B03D73C8B035}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FF73B6CF-E63D-4840-8CE8-DDB7A5DCEF34}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BA3499AE-2B79-44B0-8754-B40E2E3DDF38}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{73B824DA-72BA-4974-88A5-47C9ED86298B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{217ACC87-313D-49CD-8A8B-34FD603DAB79}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CF6CD1BD-80CA-45AA-B980-825D20949A50}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F1E3929B-DC12-4158-9C3F-CE57594DBCFC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9DA5874E-B4F4-45C1-805C-B32F5AF8D44C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6D1E22F2-8E12-422A-910D-7450D4E72F68}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{59E08FA6-4650-444F-B70E-5152D7830DC5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{31AB9ED4-C858-417A-8D84-BBD0B0AA8117}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E03B1068-BC84-47D6-8A9F-E0A05D79C207}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{386300D8-7439-4CA5-A021-58D18BDFBE81}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{22832C98-AD5A-48FE-AE56-AEF45DE5F35B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{70B70ACF-9BAC-485E-9D46-1715DAB0AFA0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ABE69781-6917-4C41-A37E-8A27EE61E2F7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{89FB2E76-6E61-4CE5-81C2-7DF0118FAB34}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7DC91BE1-FC23-41CB-AF83-12F135EA8852}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5ADC9695-8A89-4C2E-B0F5-E92E2C457232}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B3B089D6-FD93-408E-B571-BF0CE41C5A75}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E1129AF9-564E-40D8-BE5A-B3A496D9591B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A4F030F2-9158-4D17-9B1A-E9203D64B3E3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{59008AC3-19B7-4B46-A087-7238359CBABB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10045,7 +10045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C080BC3C-1F9B-424C-B71E-464F851BF51F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0672E424-896F-4435-86AF-6D3A61A67C4A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11286,18 +11286,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0E4C85F6-00DE-4D0A-B9BD-5A7AB8FCB81C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9CC221CA-4D4F-41CF-B188-93D396981C9F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4759700A-67F9-4104-BDFC-3A795CBD3CB6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3FA43262-570A-4341-AD27-025BC55E4792}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{47401429-1DFD-4AE4-80F4-4C4DDB5654B1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A99F400A-9901-4705-A890-F3DC5797CB41}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5C0584A6-BB54-4680-BC39-DA2916E220CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{178515F8-97D0-47AF-93D5-81AE646DDEA4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1654ADFE-3281-4274-8CBA-F7B2780680EA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4E5A8690-4001-47B1-9037-39AAE2F71FDC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6640DF29-965E-474C-9CB1-C25C1053319F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E5A74EC9-318A-4699-B474-14D83710D1D6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{25F78A7B-5AE7-40B4-AEBD-1DE4C32D2A4F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{529137A7-B7A6-4596-AAE6-F1DE8AD34B23}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{192B9FFD-EA35-4AD0-9B73-32C63693EC8C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EF156290-AD46-4431-9EB5-07F5EF29B0BB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5856F75E-638D-483A-A2BA-F57ED136C0B6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{36C7B889-F5AA-40A7-B32B-3696956E7BD2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0FB276BC-DA66-4EEA-A166-D424F285E94C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CEBBEBF4-559A-4F20-B461-AAF26C1BE42E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{84EAD078-D292-411F-823F-4F4021E659B4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A98FE5AC-2602-4BB3-8F85-684FC77C50D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5591F005-A4E1-4F5D-9999-14140FCB6153}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D149ADF4-9637-43B6-A2A8-8B038CB30E17}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11310,7 +11310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AAB47E-21D0-421F-A9E7-CDA46DB851E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AFA68C-458D-4825-865F-3BAFB27DA3F7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12547,18 +12547,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C22A5741-C827-40F1-BBF4-68471801A084}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EC787637-3D36-4026-BCC8-A57E38C2FEC6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FADBA58E-70A7-4FFB-B141-D1AD2DAE036F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0737C9B6-29CE-4632-9376-75456275B5F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{348FE03A-CDAB-45CE-B148-A7F980253807}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{499D6864-000D-474A-BA13-0A3D6FE56533}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6D5885BA-5279-4E26-BB4C-FB6394C53EB3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A9D6DD65-7C57-4109-A6F1-CF5C621CEEFF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{95585F22-3650-45BC-96C0-9634541D9309}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{22290DBC-47E2-421E-87B4-570B6D12EE14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{10CAB6A6-A61F-46D2-B4AF-9BBD26C694C2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5FE75164-CA1F-4722-B035-C87520923E6E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{02A9A2AC-BC04-45B4-AB1E-FF179612666B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0D2DF4D5-00DB-4819-9A7B-708ED2686CFF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BA5B8229-E890-486C-84DA-548B5D8366F3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{70A6160E-60F0-415F-8EE1-45C5ABE5CEE2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0DE2FF1C-6ACA-4D5A-933F-F7D434D14471}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9FC34E86-CEF9-4AE2-B286-773D3837FC3A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{80E5312E-8F98-40DC-BEAA-FC3B43810AD9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4CE94B95-2A43-4E91-A5F1-189CB601D454}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{09266CB1-4AA9-44E3-84F9-C43EC13928CA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{88F99502-11BE-4B7B-80B9-C792EF1F8EF5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2EB0D66C-2F64-4B35-8923-EE5EAD07CC8F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AC38F4AF-B41F-44A8-8BBD-09407269D175}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12571,7 +12571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1E8BC-A295-4E56-829D-E91DD0300B9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34297C63-E4A8-4008-B255-D692CC5A0105}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13802,18 +13802,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2E2559C9-21DD-4B3A-B94D-8A12D78E2B59}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FC7C3C79-32B9-492B-B21F-F90A86298178}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{48EA0B2D-AC7D-4B1E-981E-49AE3847CC75}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D3A34F09-667A-4449-9669-F5D99A07AFCD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{93641F0F-6F24-44B9-93F4-F31FEC253913}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0219D218-F75A-44CC-9A90-3ECFFCA2B05F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CCF729F6-2388-4385-B26A-EBA134DB12F7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8D1750B9-46E9-4982-B73B-2A9A08835DBC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{14F7BD90-0719-41DC-A5CB-E7ADF3C24A2B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7E5C96BA-C047-425D-AD3C-44A482029DEC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{16A75641-ADD5-44C6-9CCD-C3534119108E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3AEE1558-31BF-4CF5-970F-B97DF7C9947B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7C7ADEC6-3417-47DB-B38D-5B146EC66CB3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2B305B31-4BF5-4521-956E-2FB9F4753EDC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{294886B6-72F0-48AC-9384-690B4BE50ACF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DF98CDB9-6D4B-49EC-9F85-5DD69E135FFF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CC98E2B0-B9E7-4382-9E3E-2A9866ED76FF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{497BEE66-8157-4368-9546-0956A23E14C6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{29CFD4A6-3153-499A-AC63-CFF88D42F7D5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{153AC138-04B6-4471-AFA5-7DD85D1E4503}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{74B3605D-F2E4-433D-A770-375690ABCFC1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{726B4641-1A83-480F-9820-5486F7B02AB7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{29AE5227-7E62-4B5A-82F9-48AB96E39339}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BB930D4B-4E14-4FD5-8C42-19C2884328D6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13826,7 +13826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34242AC-ECF3-435F-990E-AC0A39CC2F7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34223E28-74AE-4F90-85CF-B49FBE52139A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15057,18 +15057,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FCECC818-08D7-4C94-907E-923737836893}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D1FA9F82-198D-4E7A-AE17-EDD86C8A9E1F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D25B74E1-F4F7-438D-843D-F9FFF35BC350}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E83DA7D1-F121-4A4F-8C55-123043127EB3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D653157D-0280-40D7-9D6D-BDDBFFF2548C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9CFC78EA-7AB2-4426-9C08-9E3072A29BBB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{78B37F25-7845-4729-B10E-375CA0EFC16D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2398F69E-2F88-45BE-B61D-A08D5479CC03}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{497DF26B-6E20-4B48-B68B-DED14F15D60D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{158EADFF-9448-46F9-B5F0-8A2400CE17C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1F4BD472-AE54-4178-AFA2-C70113C74B02}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6BC5D9FF-5080-4CCA-B0D7-4EBA89F17F88}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D0CED31E-82C2-46B5-9DE8-D7D8E70CC122}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6EDFF6E3-B29F-4B56-A0F7-90DF4D280C2E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{89B6D435-4F2D-49D9-B960-3D895E0610EB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7679EAC3-FFF9-4ABA-94E4-2AF600A9A258}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9D4183BE-9D33-4F8D-8E29-C9DC759513F5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{28B9A890-F8F9-4A4A-BAEA-73C88B94E6AB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3D6ADFCB-253D-44AC-91D8-271F6ED7661C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DF4048A6-D378-4EC9-9E29-31A2E2060AFC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B6D0412A-B4CE-4CD6-AD28-15230657606D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BA4D2695-F361-4D72-B2B4-19732B1F1FAD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8DD28A52-13B0-4769-84F9-46A7C15AD376}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EAD136B4-75DB-405B-8868-305DFC87D0A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15081,7 +15081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BB8F4C-C07F-4024-AD40-681606D6FE02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A957E507-030C-4E03-8D76-BDBB2F3551B6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16312,18 +16312,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5CB12B42-C888-405B-9CA6-4684104EA837}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FBFB78B8-F7F1-4225-9F6F-05C45C3524E7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6760DE7F-2375-4766-82FE-900590346D0B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{18493FEC-8C20-4A2A-B170-DA1508F2E239}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{865A1286-4052-41E4-A240-C49990225C85}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{02F37BA3-9560-47DA-81D3-A88CA7CAF9EC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EBB0D957-AE41-48D1-A6E3-485F81A80358}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5F3D7A3F-071C-4F73-A79D-AE330B02ED46}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A2E8C0C0-B463-4A57-A68E-AC4F3D979979}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AD2229D8-B82A-44F6-9BB3-73D3CBDCE850}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CD1A1EDF-C265-405E-B5F5-0557C08D50C2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FE6440D2-47A5-4553-BF75-24BF210E5FF5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{074480B5-B67D-4F42-A846-D1E81E1C2725}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3D38760A-02D1-4F1E-A566-0D640B0D5E0C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{02A6CD14-C2EC-4DDC-B927-AFF9A63487C3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5D46D418-D107-4ECB-8415-1D6EA9E012F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{806F9DC8-C0F9-41E5-8415-3E1126C6C788}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{69A5485D-3D59-4AEE-9E2F-10117C2DA269}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8A3404AD-68F2-4226-9A24-74230C7D711C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2F58FE50-2DBA-413D-803D-E97A3C791A52}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3A1902D6-2F73-499B-AB72-C8B6DDD87299}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9799E9E9-ED5B-4601-BA64-1F027F487462}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B9158F82-A165-4D9A-91C2-DC45B8AC1F88}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C72B7932-8780-458E-ABD4-3F22BC85F605}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
